--- a/biology/Biochimie/Chromatographie_sur_papier/Chromatographie_sur_papier.xlsx
+++ b/biology/Biochimie/Chromatographie_sur_papier/Chromatographie_sur_papier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chromatographie sur papier est une technique de chromatographie planaire[1] dont la phase mobile est liquide.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chromatographie sur papier est une technique de chromatographie planaire dont la phase mobile est liquide.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Mode opératoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pour effectuer une telle séparation, une petite quantité de la ou des solutions à analyser est déposée sur le bord d'une bande de papier de chromatographie.
 Cet échantillon est adsorbé par le papier ; ce qui signifie que les molécules interagissent avec ce dernier et qu'elles auront tendance à rester au même endroit.
@@ -556,7 +570,9 @@
           <t>Chromatographie bidimensionnelle sur papier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour séparer des mélanges complexes de substances similaires, il peut être utile d'employer la chromatographie bidimensionnelle. 
 Celle-ci s'effectue en deux étapes entre lesquelles on change de solvant et on tourne le papier de 90°. Les interactions développées par le nouveau solvant seront différentes, ce qui modifiera la séparation dans cette deuxième dimension et permettra une meilleure séparation globale.
@@ -588,7 +604,9 @@
           <t>Chromatographie sur papier micro-préparative</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La chromatographie sur papier peut aussi constituer une technique micro-préparative : pour récupérer les produits ainsi séparés, les portions du papier où ils se situent sont découpées et les substances adsorbées sont ensuite re-dissoutes. Les quantités récupérables sont de l'ordre du milligramme ou moins.
 </t>
@@ -619,9 +637,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La découverte de la chromatographie sur papier en 1943 par Martin et Synge a permis pour la première fois de séparer les  constituants des plantes permettant leur identification. Il y eut un développement rapide de l'activité de recherche dans ce domaine après 1945[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La découverte de la chromatographie sur papier en 1943 par Martin et Synge a permis pour la première fois de séparer les  constituants des plantes permettant leur identification. Il y eut un développement rapide de l'activité de recherche dans ce domaine après 1945.
 </t>
         </is>
       </c>
